--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Individual Success Rate Summary.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Individual Success Rate Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/Documents/PTSD/NCDE Model/Classification Results/Augmented Data/Full VPOP Classification/By Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E744FB67-7F92-D24D-BF6D-7DA27220E483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A147840-D008-1144-A4EA-756AC21CA1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15660" activeTab="3" xr2:uid="{17B46B67-7B63-A049-83C8-0322E3E84347}"/>
+    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15660" xr2:uid="{17B46B67-7B63-A049-83C8-0322E3E84347}"/>
   </bookViews>
   <sheets>
     <sheet name="Nelson Summary" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Histogram Data" sheetId="3" r:id="rId3"/>
     <sheet name="Graphs" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="118">
   <si>
     <t>Helper (for sorting)</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>Ableson</t>
+  </si>
+  <si>
+    <t>5% Uniform Noise</t>
+  </si>
+  <si>
+    <t>10% Uniform Noise</t>
   </si>
 </sst>
 </file>
@@ -410,21 +416,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -477,18 +486,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1873,3396 +1882,6700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205230A2-9B0B-A444-8DEC-9AC0EB24F1FE}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="21.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="str">
-        <f>MID(B2, SEARCH(" ", B2) + 1, LEN(B2) - SEARCH(" ", B2))</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A60" si="0">MID(B3, SEARCH(" ", B3) + 1, LEN(B3) - SEARCH(" ", B3))</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <f>C2*10</f>
-        <v>100</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f>MID(I2, SEARCH(" ", I2) + 1, LEN(I2) - SEARCH(" ", I2))</f>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D60" si="1">C3*10</f>
+        <v>100</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H60" si="2">MID(I3, SEARCH(" ", I3) + 1, LEN(I3) - SEARCH(" ", I3))</f>
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1">
-        <f>J2*10</f>
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="str">
-        <f>MID(B3, SEARCH(" ", B3) + 1, LEN(B3) - SEARCH(" ", B3))</f>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K60" si="3">J3*10</f>
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <f>C3*10</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f>MID(I3, SEARCH(" ", I3) + 1, LEN(I3) - SEARCH(" ", I3))</f>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="1">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1">
-        <f>J3*10</f>
-        <v>100</v>
-      </c>
-      <c r="M3">
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M4">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="str">
-        <f>MID(B4, SEARCH(" ", B4) + 1, LEN(B4) - SEARCH(" ", B4))</f>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <f>C4*10</f>
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f>MID(I4, SEARCH(" ", I4) + 1, LEN(I4) - SEARCH(" ", I4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="1">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <f>J4*10</f>
-        <v>100</v>
-      </c>
-      <c r="M4">
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M5">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="str">
-        <f>MID(B5, SEARCH(" ", B5) + 1, LEN(B5) - SEARCH(" ", B5))</f>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <f>C5*10</f>
-        <v>100</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f>MID(I5, SEARCH(" ", I5) + 1, LEN(I5) - SEARCH(" ", I5))</f>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="1">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1">
-        <f>J5*10</f>
-        <v>100</v>
-      </c>
-      <c r="M5">
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M6">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="str">
-        <f>MID(B6, SEARCH(" ", B6) + 1, LEN(B6) - SEARCH(" ", B6))</f>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <f>C6*10</f>
-        <v>100</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f>MID(I6, SEARCH(" ", I6) + 1, LEN(I6) - SEARCH(" ", I6))</f>
-        <v>12</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="1">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1">
-        <f>J6*10</f>
-        <v>100</v>
-      </c>
-      <c r="M6">
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M7">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="str">
-        <f>MID(B7, SEARCH(" ", B7) + 1, LEN(B7) - SEARCH(" ", B7))</f>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
-        <f>C7*10</f>
+      <c r="D8">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H7" s="1" t="str">
-        <f>MID(I7, SEARCH(" ", I7) + 1, LEN(I7) - SEARCH(" ", I7))</f>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="1">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1">
-        <f>J7*10</f>
-        <v>100</v>
-      </c>
-      <c r="M7">
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M8">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="str">
-        <f>MID(B8, SEARCH(" ", B8) + 1, LEN(B8) - SEARCH(" ", B8))</f>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
-        <f>C8*10</f>
+      <c r="D9">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="H8" s="1" t="str">
-        <f>MID(I8, SEARCH(" ", I8) + 1, LEN(I8) - SEARCH(" ", I8))</f>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="1">
-        <v>10</v>
-      </c>
-      <c r="K8" s="1">
-        <f>J8*10</f>
-        <v>100</v>
-      </c>
-      <c r="M8">
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M9">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="str">
-        <f>MID(B9, SEARCH(" ", B9) + 1, LEN(B9) - SEARCH(" ", B9))</f>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
-        <f>C9*10</f>
+      <c r="D10">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="H9" s="1" t="str">
-        <f>MID(I9, SEARCH(" ", I9) + 1, LEN(I9) - SEARCH(" ", I9))</f>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="1">
-        <v>10</v>
-      </c>
-      <c r="K9" s="1">
-        <f>J9*10</f>
-        <v>100</v>
-      </c>
-      <c r="M9">
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M10">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="str">
-        <f>MID(B10, SEARCH(" ", B10) + 1, LEN(B10) - SEARCH(" ", B10))</f>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
-        <f>C10*10</f>
+      <c r="D11">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="H10" s="1" t="str">
-        <f>MID(I10, SEARCH(" ", I10) + 1, LEN(I10) - SEARCH(" ", I10))</f>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="1">
-        <v>10</v>
-      </c>
-      <c r="K10" s="1">
-        <f>J10*10</f>
-        <v>100</v>
-      </c>
-      <c r="M10">
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M11">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="str">
-        <f>MID(B11, SEARCH(" ", B11) + 1, LEN(B11) - SEARCH(" ", B11))</f>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="D11" s="1">
-        <f>C11*10</f>
+      <c r="D12">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H11" s="1" t="str">
-        <f>MID(I11, SEARCH(" ", I11) + 1, LEN(I11) - SEARCH(" ", I11))</f>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="1">
-        <v>10</v>
-      </c>
-      <c r="K11" s="1">
-        <f>J11*10</f>
-        <v>100</v>
-      </c>
-      <c r="M11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="str">
-        <f>MID(B12, SEARCH(" ", B12) + 1, LEN(B12) - SEARCH(" ", B12))</f>
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <f>C12*10</f>
-        <v>10</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f>MID(I12, SEARCH(" ", I12) + 1, LEN(I12) - SEARCH(" ", I12))</f>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
-        <f>J12*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="str">
-        <f>MID(B13, SEARCH(" ", B13) + 1, LEN(B13) - SEARCH(" ", B13))</f>
+      <c r="I13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <f>C13*10</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f>MID(I13, SEARCH(" ", I13) + 1, LEN(I13) - SEARCH(" ", I13))</f>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="1">
-        <v>10</v>
-      </c>
-      <c r="K13" s="1">
-        <f>J13*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="str">
-        <f>MID(B14, SEARCH(" ", B14) + 1, LEN(B14) - SEARCH(" ", B14))</f>
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <f>C14*10</f>
-        <v>100</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f>MID(I14, SEARCH(" ", I14) + 1, LEN(I14) - SEARCH(" ", I14))</f>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="1">
-        <v>10</v>
-      </c>
-      <c r="K14" s="1">
-        <f>J14*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="str">
-        <f>MID(B15, SEARCH(" ", B15) + 1, LEN(B15) - SEARCH(" ", B15))</f>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1">
-        <f>C15*10</f>
-        <v>100</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f>MID(I15, SEARCH(" ", I15) + 1, LEN(I15) - SEARCH(" ", I15))</f>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="1">
-        <v>10</v>
-      </c>
-      <c r="K15" s="1">
-        <f>J15*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="str">
-        <f>MID(B16, SEARCH(" ", B16) + 1, LEN(B16) - SEARCH(" ", B16))</f>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="D16" s="1">
-        <f>C16*10</f>
+      <c r="D17">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H16" s="1" t="str">
-        <f>MID(I16, SEARCH(" ", I16) + 1, LEN(I16) - SEARCH(" ", I16))</f>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="1">
-        <v>10</v>
-      </c>
-      <c r="K16" s="1">
-        <f>J16*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="str">
-        <f>MID(B17, SEARCH(" ", B17) + 1, LEN(B17) - SEARCH(" ", B17))</f>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <f>C17*10</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="str">
-        <f>MID(I17, SEARCH(" ", I17) + 1, LEN(I17) - SEARCH(" ", I17))</f>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="1">
-        <v>10</v>
-      </c>
-      <c r="K17" s="1">
-        <f>J17*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="str">
-        <f>MID(B18, SEARCH(" ", B18) + 1, LEN(B18) - SEARCH(" ", B18))</f>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1">
-        <f>C18*10</f>
-        <v>100</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f>MID(I18, SEARCH(" ", I18) + 1, LEN(I18) - SEARCH(" ", I18))</f>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="1">
-        <v>10</v>
-      </c>
-      <c r="K18" s="1">
-        <f>J18*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="str">
-        <f>MID(B19, SEARCH(" ", B19) + 1, LEN(B19) - SEARCH(" ", B19))</f>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <f>C19*10</f>
-        <v>100</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f>MID(I19, SEARCH(" ", I19) + 1, LEN(I19) - SEARCH(" ", I19))</f>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="1">
-        <v>10</v>
-      </c>
-      <c r="K19" s="1">
-        <f>J19*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="str">
-        <f>MID(B20, SEARCH(" ", B20) + 1, LEN(B20) - SEARCH(" ", B20))</f>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1">
-        <f>C20*10</f>
-        <v>100</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f>MID(I20, SEARCH(" ", I20) + 1, LEN(I20) - SEARCH(" ", I20))</f>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="1">
-        <v>10</v>
-      </c>
-      <c r="K20" s="1">
-        <f>J20*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="str">
-        <f>MID(B21, SEARCH(" ", B21) + 1, LEN(B21) - SEARCH(" ", B21))</f>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1">
-        <f>C21*10</f>
-        <v>100</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f>MID(I21, SEARCH(" ", I21) + 1, LEN(I21) - SEARCH(" ", I21))</f>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="1">
-        <v>10</v>
-      </c>
-      <c r="K21" s="1">
-        <f>J21*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="str">
-        <f>MID(B22, SEARCH(" ", B22) + 1, LEN(B22) - SEARCH(" ", B22))</f>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1">
-        <f>C22*10</f>
-        <v>100</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f>MID(I22, SEARCH(" ", I22) + 1, LEN(I22) - SEARCH(" ", I22))</f>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="1">
-        <v>10</v>
-      </c>
-      <c r="K22" s="1">
-        <f>J22*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="str">
-        <f>MID(B23, SEARCH(" ", B23) + 1, LEN(B23) - SEARCH(" ", B23))</f>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="1">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1">
-        <f>C23*10</f>
-        <v>100</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <f>MID(I23, SEARCH(" ", I23) + 1, LEN(I23) - SEARCH(" ", I23))</f>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="1">
-        <v>10</v>
-      </c>
-      <c r="K23" s="1">
-        <f>J23*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="str">
-        <f>MID(B24, SEARCH(" ", B24) + 1, LEN(B24) - SEARCH(" ", B24))</f>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="1">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1">
-        <f>C24*10</f>
-        <v>100</v>
-      </c>
-      <c r="H24" s="1" t="str">
-        <f>MID(I24, SEARCH(" ", I24) + 1, LEN(I24) - SEARCH(" ", I24))</f>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="1">
-        <v>10</v>
-      </c>
-      <c r="K24" s="1">
-        <f>J24*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="str">
-        <f>MID(B25, SEARCH(" ", B25) + 1, LEN(B25) - SEARCH(" ", B25))</f>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26">
         <v>4</v>
       </c>
-      <c r="D25" s="1">
-        <f>C25*10</f>
+      <c r="D26">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H25" s="1" t="str">
-        <f>MID(I25, SEARCH(" ", I25) + 1, LEN(I25) - SEARCH(" ", I25))</f>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="1">
-        <v>10</v>
-      </c>
-      <c r="K25" s="1">
-        <f>J25*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="str">
-        <f>MID(B26, SEARCH(" ", B26) + 1, LEN(B26) - SEARCH(" ", B26))</f>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="1">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1">
-        <f>C26*10</f>
-        <v>100</v>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f>MID(I26, SEARCH(" ", I26) + 1, LEN(I26) - SEARCH(" ", I26))</f>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="1">
-        <v>10</v>
-      </c>
-      <c r="K26" s="1">
-        <f>J26*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="str">
-        <f>MID(B27, SEARCH(" ", B27) + 1, LEN(B27) - SEARCH(" ", B27))</f>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <f>C27*10</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f>MID(I27, SEARCH(" ", I27) + 1, LEN(I27) - SEARCH(" ", I27))</f>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="1">
-        <v>10</v>
-      </c>
-      <c r="K27" s="1">
-        <f>J27*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="str">
-        <f>MID(B28, SEARCH(" ", B28) + 1, LEN(B28) - SEARCH(" ", B28))</f>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="1">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1">
-        <f>C28*10</f>
-        <v>100</v>
-      </c>
-      <c r="H28" s="1" t="str">
-        <f>MID(I28, SEARCH(" ", I28) + 1, LEN(I28) - SEARCH(" ", I28))</f>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J28" s="1">
-        <v>10</v>
-      </c>
-      <c r="K28" s="1">
-        <f>J28*10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="str">
-        <f>MID(B29, SEARCH(" ", B29) + 1, LEN(B29) - SEARCH(" ", B29))</f>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="1">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1">
-        <f>C29*10</f>
-        <v>100</v>
-      </c>
-      <c r="H29" s="1" t="str">
-        <f>MID(I29, SEARCH(" ", I29) + 1, LEN(I29) - SEARCH(" ", I29))</f>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J30">
         <v>9</v>
       </c>
-      <c r="K29" s="1">
-        <f>J29*10</f>
+      <c r="K30">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="str">
-        <f>MID(B30, SEARCH(" ", B30) + 1, LEN(B30) - SEARCH(" ", B30))</f>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="D30" s="1">
-        <f>C30*10</f>
+      <c r="D31">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H30" s="1" t="str">
-        <f>MID(I30, SEARCH(" ", I30) + 1, LEN(I30) - SEARCH(" ", I30))</f>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J31">
         <v>9</v>
       </c>
-      <c r="K30" s="1">
-        <f>J30*10</f>
+      <c r="K31">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="str">
-        <f>MID(B31, SEARCH(" ", B31) + 1, LEN(B31) - SEARCH(" ", B31))</f>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="1">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1">
-        <f>C31*10</f>
-        <v>100</v>
-      </c>
-      <c r="H31" s="1" t="str">
-        <f>MID(I31, SEARCH(" ", I31) + 1, LEN(I31) - SEARCH(" ", I31))</f>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J32">
         <v>9</v>
       </c>
-      <c r="K31" s="1">
-        <f>J31*10</f>
+      <c r="K32">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="str">
-        <f>MID(B32, SEARCH(" ", B32) + 1, LEN(B32) - SEARCH(" ", B32))</f>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="D32" s="1">
-        <f>C32*10</f>
+      <c r="D33">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H32" s="1" t="str">
-        <f>MID(I32, SEARCH(" ", I32) + 1, LEN(I32) - SEARCH(" ", I32))</f>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J33">
         <v>9</v>
       </c>
-      <c r="K32" s="1">
-        <f>J32*10</f>
+      <c r="K33">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="str">
-        <f>MID(B33, SEARCH(" ", B33) + 1, LEN(B33) - SEARCH(" ", B33))</f>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="1">
-        <v>10</v>
-      </c>
-      <c r="D33" s="1">
-        <f>C33*10</f>
-        <v>100</v>
-      </c>
-      <c r="H33" s="1" t="str">
-        <f>MID(I33, SEARCH(" ", I33) + 1, LEN(I33) - SEARCH(" ", I33))</f>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34">
         <v>8</v>
       </c>
-      <c r="K33" s="1">
-        <f>J33*10</f>
+      <c r="K34">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="str">
-        <f>MID(B34, SEARCH(" ", B34) + 1, LEN(B34) - SEARCH(" ", B34))</f>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35">
         <v>9</v>
       </c>
-      <c r="D34" s="1">
-        <f>C34*10</f>
+      <c r="D35">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="H34" s="1" t="str">
-        <f>MID(I34, SEARCH(" ", I34) + 1, LEN(I34) - SEARCH(" ", I34))</f>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J35">
         <v>8</v>
       </c>
-      <c r="K34" s="1">
-        <f>J34*10</f>
+      <c r="K35">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="str">
-        <f>MID(B35, SEARCH(" ", B35) + 1, LEN(B35) - SEARCH(" ", B35))</f>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="D35" s="1">
-        <f>C35*10</f>
+      <c r="D36">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H35" s="1" t="str">
-        <f>MID(I35, SEARCH(" ", I35) + 1, LEN(I35) - SEARCH(" ", I35))</f>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J36">
         <v>7</v>
       </c>
-      <c r="K35" s="1">
-        <f>J35*10</f>
+      <c r="K36">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="str">
-        <f>MID(B36, SEARCH(" ", B36) + 1, LEN(B36) - SEARCH(" ", B36))</f>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37">
         <v>1</v>
       </c>
-      <c r="D36" s="1">
-        <f>C36*10</f>
-        <v>10</v>
-      </c>
-      <c r="H36" s="1" t="str">
-        <f>MID(I36, SEARCH(" ", I36) + 1, LEN(I36) - SEARCH(" ", I36))</f>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J37">
         <v>7</v>
       </c>
-      <c r="K36" s="1">
-        <f>J36*10</f>
+      <c r="K37">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="str">
-        <f>MID(B37, SEARCH(" ", B37) + 1, LEN(B37) - SEARCH(" ", B37))</f>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <f>C37*10</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="1" t="str">
-        <f>MID(I37, SEARCH(" ", I37) + 1, LEN(I37) - SEARCH(" ", I37))</f>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J38">
         <v>6</v>
       </c>
-      <c r="K37" s="1">
-        <f>J37*10</f>
+      <c r="K38">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="str">
-        <f>MID(B38, SEARCH(" ", B38) + 1, LEN(B38) - SEARCH(" ", B38))</f>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39">
         <v>7</v>
       </c>
-      <c r="D38" s="1">
-        <f>C38*10</f>
+      <c r="D39">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="H38" s="1" t="str">
-        <f>MID(I38, SEARCH(" ", I38) + 1, LEN(I38) - SEARCH(" ", I38))</f>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J39">
         <v>6</v>
       </c>
-      <c r="K38" s="1">
-        <f>J38*10</f>
+      <c r="K39">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="str">
-        <f>MID(B39, SEARCH(" ", B39) + 1, LEN(B39) - SEARCH(" ", B39))</f>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40">
         <v>2</v>
       </c>
-      <c r="D39" s="1">
-        <f>C39*10</f>
+      <c r="D40">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H39" s="1" t="str">
-        <f>MID(I39, SEARCH(" ", I39) + 1, LEN(I39) - SEARCH(" ", I39))</f>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J40">
         <v>5</v>
       </c>
-      <c r="K39" s="1">
-        <f>J39*10</f>
+      <c r="K40">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="str">
-        <f>MID(B40, SEARCH(" ", B40) + 1, LEN(B40) - SEARCH(" ", B40))</f>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="1">
-        <v>10</v>
-      </c>
-      <c r="D40" s="1">
-        <f>C40*10</f>
-        <v>100</v>
-      </c>
-      <c r="H40" s="1" t="str">
-        <f>MID(I40, SEARCH(" ", I40) + 1, LEN(I40) - SEARCH(" ", I40))</f>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J41">
         <v>4</v>
       </c>
-      <c r="K40" s="1">
-        <f>J40*10</f>
+      <c r="K41">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="str">
-        <f>MID(B41, SEARCH(" ", B41) + 1, LEN(B41) - SEARCH(" ", B41))</f>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="1">
-        <v>10</v>
-      </c>
-      <c r="D41" s="1">
-        <f>C41*10</f>
-        <v>100</v>
-      </c>
-      <c r="H41" s="1" t="str">
-        <f>MID(I41, SEARCH(" ", I41) + 1, LEN(I41) - SEARCH(" ", I41))</f>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I42" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J42">
         <v>4</v>
       </c>
-      <c r="K41" s="1">
-        <f>J41*10</f>
+      <c r="K42">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="str">
-        <f>MID(B42, SEARCH(" ", B42) + 1, LEN(B42) - SEARCH(" ", B42))</f>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <f>C42*10</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="1" t="str">
-        <f>MID(I42, SEARCH(" ", I42) + 1, LEN(I42) - SEARCH(" ", I42))</f>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J43">
         <v>3</v>
       </c>
-      <c r="K42" s="1">
-        <f>J42*10</f>
+      <c r="K43">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="str">
-        <f>MID(B43, SEARCH(" ", B43) + 1, LEN(B43) - SEARCH(" ", B43))</f>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44">
         <v>1</v>
       </c>
-      <c r="D43" s="1">
-        <f>C43*10</f>
-        <v>10</v>
-      </c>
-      <c r="H43" s="1" t="str">
-        <f>MID(I43, SEARCH(" ", I43) + 1, LEN(I43) - SEARCH(" ", I43))</f>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J44">
         <v>3</v>
       </c>
-      <c r="K43" s="1">
-        <f>J43*10</f>
+      <c r="K44">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="str">
-        <f>MID(B44, SEARCH(" ", B44) + 1, LEN(B44) - SEARCH(" ", B44))</f>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="1">
-        <v>10</v>
-      </c>
-      <c r="D44" s="1">
-        <f>C44*10</f>
-        <v>100</v>
-      </c>
-      <c r="H44" s="1" t="str">
-        <f>MID(I44, SEARCH(" ", I44) + 1, LEN(I44) - SEARCH(" ", I44))</f>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J45">
         <v>3</v>
       </c>
-      <c r="K44" s="1">
-        <f>J44*10</f>
+      <c r="K45">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="str">
-        <f>MID(B45, SEARCH(" ", B45) + 1, LEN(B45) - SEARCH(" ", B45))</f>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C46">
         <v>2</v>
       </c>
-      <c r="D45" s="1">
-        <f>C45*10</f>
+      <c r="D46">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H45" s="1" t="str">
-        <f>MID(I45, SEARCH(" ", I45) + 1, LEN(I45) - SEARCH(" ", I45))</f>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J46">
         <v>2</v>
       </c>
-      <c r="K45" s="1">
-        <f>J45*10</f>
+      <c r="K46">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="str">
-        <f>MID(B46, SEARCH(" ", B46) + 1, LEN(B46) - SEARCH(" ", B46))</f>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47">
         <v>1</v>
       </c>
-      <c r="D46" s="1">
-        <f>C46*10</f>
-        <v>10</v>
-      </c>
-      <c r="H46" s="1" t="str">
-        <f>MID(I46, SEARCH(" ", I46) + 1, LEN(I46) - SEARCH(" ", I46))</f>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J47">
         <v>2</v>
       </c>
-      <c r="K46" s="1">
-        <f>J46*10</f>
+      <c r="K47">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="str">
-        <f>MID(B47, SEARCH(" ", B47) + 1, LEN(B47) - SEARCH(" ", B47))</f>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="1">
-        <v>10</v>
-      </c>
-      <c r="D47" s="1">
-        <f>C47*10</f>
-        <v>100</v>
-      </c>
-      <c r="H47" s="1" t="str">
-        <f>MID(I47, SEARCH(" ", I47) + 1, LEN(I47) - SEARCH(" ", I47))</f>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="1">
+      <c r="I48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48">
         <v>2</v>
       </c>
-      <c r="K47" s="1">
-        <f>J47*10</f>
+      <c r="K48">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="str">
-        <f>MID(B48, SEARCH(" ", B48) + 1, LEN(B48) - SEARCH(" ", B48))</f>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C49">
         <v>2</v>
       </c>
-      <c r="D48" s="1">
-        <f>C48*10</f>
+      <c r="D49">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H48" s="1" t="str">
-        <f>MID(I48, SEARCH(" ", I48) + 1, LEN(I48) - SEARCH(" ", I48))</f>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I49" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J49">
         <v>2</v>
       </c>
-      <c r="K48" s="1">
-        <f>J48*10</f>
+      <c r="K49">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="str">
-        <f>MID(B49, SEARCH(" ", B49) + 1, LEN(B49) - SEARCH(" ", B49))</f>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="1">
-        <v>10</v>
-      </c>
-      <c r="D49" s="1">
-        <f>C49*10</f>
-        <v>100</v>
-      </c>
-      <c r="H49" s="1" t="str">
-        <f>MID(I49, SEARCH(" ", I49) + 1, LEN(I49) - SEARCH(" ", I49))</f>
-        <v>10</v>
-      </c>
-      <c r="I49" s="2" t="s">
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J50">
         <v>1</v>
       </c>
-      <c r="K49" s="1">
-        <f>J49*10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="str">
-        <f>MID(B50, SEARCH(" ", B50) + 1, LEN(B50) - SEARCH(" ", B50))</f>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C51">
         <v>3</v>
       </c>
-      <c r="D50" s="1">
-        <f>C50*10</f>
+      <c r="D51">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H50" s="1" t="str">
-        <f>MID(I50, SEARCH(" ", I50) + 1, LEN(I50) - SEARCH(" ", I50))</f>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J51">
         <v>1</v>
       </c>
-      <c r="K50" s="1">
-        <f>J50*10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="str">
-        <f>MID(B51, SEARCH(" ", B51) + 1, LEN(B51) - SEARCH(" ", B51))</f>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="1">
-        <v>10</v>
-      </c>
-      <c r="D51" s="1">
-        <f>C51*10</f>
-        <v>100</v>
-      </c>
-      <c r="H51" s="1" t="str">
-        <f>MID(I51, SEARCH(" ", I51) + 1, LEN(I51) - SEARCH(" ", I51))</f>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J52">
         <v>1</v>
       </c>
-      <c r="K51" s="1">
-        <f>J51*10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="str">
-        <f>MID(B52, SEARCH(" ", B52) + 1, LEN(B52) - SEARCH(" ", B52))</f>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C53">
         <v>9</v>
       </c>
-      <c r="D52" s="1">
-        <f>C52*10</f>
+      <c r="D53">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="H52" s="1" t="str">
-        <f>MID(I52, SEARCH(" ", I52) + 1, LEN(I52) - SEARCH(" ", I52))</f>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J53">
         <v>1</v>
       </c>
-      <c r="K52" s="1">
-        <f>J52*10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="str">
-        <f>MID(B53, SEARCH(" ", B53) + 1, LEN(B53) - SEARCH(" ", B53))</f>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C54">
         <v>7</v>
       </c>
-      <c r="D53" s="1">
-        <f>C53*10</f>
+      <c r="D54">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="H53" s="1" t="str">
-        <f>MID(I53, SEARCH(" ", I53) + 1, LEN(I53) - SEARCH(" ", I53))</f>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J54">
         <v>1</v>
       </c>
-      <c r="K53" s="1">
-        <f>J53*10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="str">
-        <f>MID(B54, SEARCH(" ", B54) + 1, LEN(B54) - SEARCH(" ", B54))</f>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C55">
         <v>6</v>
       </c>
-      <c r="D54" s="1">
-        <f>C54*10</f>
+      <c r="D55">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H54" s="1" t="str">
-        <f>MID(I54, SEARCH(" ", I54) + 1, LEN(I54) - SEARCH(" ", I54))</f>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J54" s="1">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1">
-        <f>J54*10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="str">
-        <f>MID(B55, SEARCH(" ", B55) + 1, LEN(B55) - SEARCH(" ", B55))</f>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="1">
-        <v>10</v>
-      </c>
-      <c r="D55" s="1">
-        <f>C55*10</f>
-        <v>100</v>
-      </c>
-      <c r="H55" s="1" t="str">
-        <f>MID(I55, SEARCH(" ", I55) + 1, LEN(I55) - SEARCH(" ", I55))</f>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I56" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <f>J55*10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="str">
-        <f>MID(B56, SEARCH(" ", B56) + 1, LEN(B56) - SEARCH(" ", B56))</f>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="1">
-        <v>10</v>
-      </c>
-      <c r="D56" s="1">
-        <f>C56*10</f>
-        <v>100</v>
-      </c>
-      <c r="H56" s="1" t="str">
-        <f>MID(I56, SEARCH(" ", I56) + 1, LEN(I56) - SEARCH(" ", I56))</f>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I57" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J56" s="1">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1">
-        <f>J56*10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="str">
-        <f>MID(B57, SEARCH(" ", B57) + 1, LEN(B57) - SEARCH(" ", B57))</f>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C58">
         <v>9</v>
       </c>
-      <c r="D57" s="1">
-        <f>C57*10</f>
+      <c r="D58">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="H57" s="1" t="str">
-        <f>MID(I57, SEARCH(" ", I57) + 1, LEN(I57) - SEARCH(" ", I57))</f>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I58" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J57" s="1">
-        <v>0</v>
-      </c>
-      <c r="K57" s="1">
-        <f>J57*10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="str">
-        <f>MID(B58, SEARCH(" ", B58) + 1, LEN(B58) - SEARCH(" ", B58))</f>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="1">
-        <v>10</v>
-      </c>
-      <c r="D58" s="1">
-        <f>C58*10</f>
-        <v>100</v>
-      </c>
-      <c r="H58" s="1" t="str">
-        <f>MID(I58, SEARCH(" ", I58) + 1, LEN(I58) - SEARCH(" ", I58))</f>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I59" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J58" s="1">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1">
-        <f>J58*10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="str">
-        <f>MID(B59, SEARCH(" ", B59) + 1, LEN(B59) - SEARCH(" ", B59))</f>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="1">
-        <v>10</v>
-      </c>
-      <c r="D59" s="1">
-        <f>C59*10</f>
-        <v>100</v>
-      </c>
-      <c r="H59" s="1" t="str">
-        <f>MID(I59, SEARCH(" ", I59) + 1, LEN(I59) - SEARCH(" ", I59))</f>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="1">
-        <v>0</v>
-      </c>
-      <c r="K59" s="1">
-        <f>J59*10</f>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f>MID(B65, SEARCH(" ", B65) + 1, LEN(B65) - SEARCH(" ", B65))</f>
+        <v>0</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:D122" si="4">C65*10</f>
+        <v>100</v>
+      </c>
+      <c r="H65" t="str">
+        <f>MID(I65, SEARCH(" ", I65) + 1, LEN(I65) - SEARCH(" ", I65))</f>
+        <v>22</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>10</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ref="K65:K122" si="5">J65*10</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f>MID(B66, SEARCH(" ", B66) + 1, LEN(B66) - SEARCH(" ", B66))</f>
+        <v>1</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="str">
+        <f>MID(I66, SEARCH(" ", I66) + 1, LEN(I66) - SEARCH(" ", I66))</f>
+        <v>50</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f>MID(B67, SEARCH(" ", B67) + 1, LEN(B67) - SEARCH(" ", B67))</f>
+        <v>2</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H67" t="str">
+        <f>MID(I67, SEARCH(" ", I67) + 1, LEN(I67) - SEARCH(" ", I67))</f>
+        <v>39</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f>MID(B68, SEARCH(" ", B68) + 1, LEN(B68) - SEARCH(" ", B68))</f>
+        <v>3</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H68" t="str">
+        <f>MID(I68, SEARCH(" ", I68) + 1, LEN(I68) - SEARCH(" ", I68))</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>10</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f>MID(B69, SEARCH(" ", B69) + 1, LEN(B69) - SEARCH(" ", B69))</f>
+        <v>4</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H69" t="str">
+        <f>MID(I69, SEARCH(" ", I69) + 1, LEN(I69) - SEARCH(" ", I69))</f>
+        <v>26</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J69">
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f>MID(B70, SEARCH(" ", B70) + 1, LEN(B70) - SEARCH(" ", B70))</f>
+        <v>5</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H70" t="str">
+        <f>MID(I70, SEARCH(" ", I70) + 1, LEN(I70) - SEARCH(" ", I70))</f>
+        <v>12</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f>MID(B71, SEARCH(" ", B71) + 1, LEN(B71) - SEARCH(" ", B71))</f>
+        <v>6</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H71" t="str">
+        <f>MID(I71, SEARCH(" ", I71) + 1, LEN(I71) - SEARCH(" ", I71))</f>
+        <v>24</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71">
+        <v>10</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f>MID(B72, SEARCH(" ", B72) + 1, LEN(B72) - SEARCH(" ", B72))</f>
+        <v>7</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H72" t="str">
+        <f>MID(I72, SEARCH(" ", I72) + 1, LEN(I72) - SEARCH(" ", I72))</f>
+        <v>57</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f>MID(B73, SEARCH(" ", B73) + 1, LEN(B73) - SEARCH(" ", B73))</f>
+        <v>8</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H73" t="str">
+        <f>MID(I73, SEARCH(" ", I73) + 1, LEN(I73) - SEARCH(" ", I73))</f>
+        <v>49</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f>MID(B74, SEARCH(" ", B74) + 1, LEN(B74) - SEARCH(" ", B74))</f>
+        <v>9</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="H74" t="str">
+        <f>MID(I74, SEARCH(" ", I74) + 1, LEN(I74) - SEARCH(" ", I74))</f>
+        <v>53</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74">
+        <v>10</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f>MID(B75, SEARCH(" ", B75) + 1, LEN(B75) - SEARCH(" ", B75))</f>
+        <v>10</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H75" t="str">
+        <f>MID(I75, SEARCH(" ", I75) + 1, LEN(I75) - SEARCH(" ", I75))</f>
+        <v>4</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <v>10</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f>MID(B76, SEARCH(" ", B76) + 1, LEN(B76) - SEARCH(" ", B76))</f>
+        <v>11</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="str">
+        <f>MID(I76, SEARCH(" ", I76) + 1, LEN(I76) - SEARCH(" ", I76))</f>
+        <v>38</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76">
+        <v>10</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f>MID(B77, SEARCH(" ", B77) + 1, LEN(B77) - SEARCH(" ", B77))</f>
+        <v>12</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H77" t="str">
+        <f>MID(I77, SEARCH(" ", I77) + 1, LEN(I77) - SEARCH(" ", I77))</f>
+        <v>19</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f>MID(B78, SEARCH(" ", B78) + 1, LEN(B78) - SEARCH(" ", B78))</f>
+        <v>13</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H78" t="str">
+        <f>MID(I78, SEARCH(" ", I78) + 1, LEN(I78) - SEARCH(" ", I78))</f>
+        <v>17</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J78">
+        <v>10</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f>MID(B79, SEARCH(" ", B79) + 1, LEN(B79) - SEARCH(" ", B79))</f>
+        <v>14</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H79" t="str">
+        <f>MID(I79, SEARCH(" ", I79) + 1, LEN(I79) - SEARCH(" ", I79))</f>
+        <v>31</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79">
+        <v>10</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f>MID(B80, SEARCH(" ", B80) + 1, LEN(B80) - SEARCH(" ", B80))</f>
+        <v>15</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H80" t="str">
+        <f>MID(I80, SEARCH(" ", I80) + 1, LEN(I80) - SEARCH(" ", I80))</f>
+        <v>29</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J80">
+        <v>10</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f>MID(B81, SEARCH(" ", B81) + 1, LEN(B81) - SEARCH(" ", B81))</f>
+        <v>16</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H81" t="str">
+        <f>MID(I81, SEARCH(" ", I81) + 1, LEN(I81) - SEARCH(" ", I81))</f>
+        <v>20</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f>MID(B82, SEARCH(" ", B82) + 1, LEN(B82) - SEARCH(" ", B82))</f>
+        <v>17</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H82" t="str">
+        <f>MID(I82, SEARCH(" ", I82) + 1, LEN(I82) - SEARCH(" ", I82))</f>
+        <v>21</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J82">
+        <v>10</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f>MID(B83, SEARCH(" ", B83) + 1, LEN(B83) - SEARCH(" ", B83))</f>
+        <v>18</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H83" t="str">
+        <f>MID(I83, SEARCH(" ", I83) + 1, LEN(I83) - SEARCH(" ", I83))</f>
+        <v>13</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J83">
+        <v>10</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f>MID(B84, SEARCH(" ", B84) + 1, LEN(B84) - SEARCH(" ", B84))</f>
+        <v>19</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H84" t="str">
+        <f>MID(I84, SEARCH(" ", I84) + 1, LEN(I84) - SEARCH(" ", I84))</f>
+        <v>18</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J84">
+        <v>10</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f>MID(B85, SEARCH(" ", B85) + 1, LEN(B85) - SEARCH(" ", B85))</f>
+        <v>20</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H85" t="str">
+        <f>MID(I85, SEARCH(" ", I85) + 1, LEN(I85) - SEARCH(" ", I85))</f>
+        <v>32</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J85">
+        <v>10</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f>MID(B86, SEARCH(" ", B86) + 1, LEN(B86) - SEARCH(" ", B86))</f>
+        <v>21</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H86" t="str">
+        <f>MID(I86, SEARCH(" ", I86) + 1, LEN(I86) - SEARCH(" ", I86))</f>
+        <v>54</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J86">
+        <v>10</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f>MID(B87, SEARCH(" ", B87) + 1, LEN(B87) - SEARCH(" ", B87))</f>
+        <v>22</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H87" t="str">
+        <f>MID(I87, SEARCH(" ", I87) + 1, LEN(I87) - SEARCH(" ", I87))</f>
+        <v>47</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J87">
+        <v>10</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f>MID(B88, SEARCH(" ", B88) + 1, LEN(B88) - SEARCH(" ", B88))</f>
+        <v>23</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="str">
+        <f>MID(I88, SEARCH(" ", I88) + 1, LEN(I88) - SEARCH(" ", I88))</f>
+        <v>45</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J88">
+        <v>10</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f>MID(B89, SEARCH(" ", B89) + 1, LEN(B89) - SEARCH(" ", B89))</f>
+        <v>24</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H89" t="str">
+        <f>MID(I89, SEARCH(" ", I89) + 1, LEN(I89) - SEARCH(" ", I89))</f>
+        <v>3</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89">
+        <v>10</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f>MID(B90, SEARCH(" ", B90) + 1, LEN(B90) - SEARCH(" ", B90))</f>
+        <v>25</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="str">
+        <f>MID(I90, SEARCH(" ", I90) + 1, LEN(I90) - SEARCH(" ", I90))</f>
+        <v>16</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J90">
+        <v>10</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f>MID(B91, SEARCH(" ", B91) + 1, LEN(B91) - SEARCH(" ", B91))</f>
+        <v>26</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H91" t="str">
+        <f>MID(I91, SEARCH(" ", I91) + 1, LEN(I91) - SEARCH(" ", I91))</f>
+        <v>27</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J91">
+        <v>10</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f>MID(B92, SEARCH(" ", B92) + 1, LEN(B92) - SEARCH(" ", B92))</f>
+        <v>27</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H92" t="str">
+        <f>MID(I92, SEARCH(" ", I92) + 1, LEN(I92) - SEARCH(" ", I92))</f>
+        <v>42</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J92">
+        <v>10</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f>MID(B93, SEARCH(" ", B93) + 1, LEN(B93) - SEARCH(" ", B93))</f>
+        <v>28</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H93" t="str">
+        <f>MID(I93, SEARCH(" ", I93) + 1, LEN(I93) - SEARCH(" ", I93))</f>
+        <v>7</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93">
+        <v>10</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="str">
+        <f>MID(B94, SEARCH(" ", B94) + 1, LEN(B94) - SEARCH(" ", B94))</f>
+        <v>29</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H94" t="str">
+        <f>MID(I94, SEARCH(" ", I94) + 1, LEN(I94) - SEARCH(" ", I94))</f>
+        <v>48</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J94">
+        <v>9</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="str">
+        <f>MID(B95, SEARCH(" ", B95) + 1, LEN(B95) - SEARCH(" ", B95))</f>
+        <v>30</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H95" t="str">
+        <f>MID(I95, SEARCH(" ", I95) + 1, LEN(I95) - SEARCH(" ", I95))</f>
+        <v>9</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95">
+        <v>9</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="str">
+        <f>MID(B96, SEARCH(" ", B96) + 1, LEN(B96) - SEARCH(" ", B96))</f>
+        <v>31</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H96" t="str">
+        <f>MID(I96, SEARCH(" ", I96) + 1, LEN(I96) - SEARCH(" ", I96))</f>
+        <v>56</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J96">
+        <v>8</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="str">
+        <f>MID(B97, SEARCH(" ", B97) + 1, LEN(B97) - SEARCH(" ", B97))</f>
+        <v>32</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H97" t="str">
+        <f>MID(I97, SEARCH(" ", I97) + 1, LEN(I97) - SEARCH(" ", I97))</f>
+        <v>36</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J97">
+        <v>6</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="str">
+        <f>MID(B98, SEARCH(" ", B98) + 1, LEN(B98) - SEARCH(" ", B98))</f>
+        <v>33</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="H98" t="str">
+        <f>MID(I98, SEARCH(" ", I98) + 1, LEN(I98) - SEARCH(" ", I98))</f>
+        <v>6</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98">
+        <v>5</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="str">
+        <f>MID(B99, SEARCH(" ", B99) + 1, LEN(B99) - SEARCH(" ", B99))</f>
+        <v>34</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H99" t="str">
+        <f>MID(I99, SEARCH(" ", I99) + 1, LEN(I99) - SEARCH(" ", I99))</f>
+        <v>37</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J99">
+        <v>5</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="str">
+        <f>MID(B100, SEARCH(" ", B100) + 1, LEN(B100) - SEARCH(" ", B100))</f>
+        <v>35</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H100" t="str">
+        <f>MID(I100, SEARCH(" ", I100) + 1, LEN(I100) - SEARCH(" ", I100))</f>
+        <v>8</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100">
+        <v>5</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="str">
+        <f>MID(B101, SEARCH(" ", B101) + 1, LEN(B101) - SEARCH(" ", B101))</f>
+        <v>36</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="H101" t="str">
+        <f>MID(I101, SEARCH(" ", I101) + 1, LEN(I101) - SEARCH(" ", I101))</f>
+        <v>14</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J101">
+        <v>5</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" t="str">
+        <f>MID(B102, SEARCH(" ", B102) + 1, LEN(B102) - SEARCH(" ", B102))</f>
+        <v>37</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H102" t="str">
+        <f>MID(I102, SEARCH(" ", I102) + 1, LEN(I102) - SEARCH(" ", I102))</f>
+        <v>52</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J102">
+        <v>4</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" t="str">
+        <f>MID(B103, SEARCH(" ", B103) + 1, LEN(B103) - SEARCH(" ", B103))</f>
+        <v>38</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H103" t="str">
+        <f>MID(I103, SEARCH(" ", I103) + 1, LEN(I103) - SEARCH(" ", I103))</f>
+        <v>33</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" t="str">
+        <f>MID(B104, SEARCH(" ", B104) + 1, LEN(B104) - SEARCH(" ", B104))</f>
+        <v>39</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H104" t="str">
+        <f>MID(I104, SEARCH(" ", I104) + 1, LEN(I104) - SEARCH(" ", I104))</f>
+        <v>55</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J104">
+        <v>4</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" t="str">
+        <f>MID(B105, SEARCH(" ", B105) + 1, LEN(B105) - SEARCH(" ", B105))</f>
+        <v>40</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="str">
+        <f>MID(I105, SEARCH(" ", I105) + 1, LEN(I105) - SEARCH(" ", I105))</f>
+        <v>30</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J105">
+        <v>3</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" t="str">
+        <f>MID(B106, SEARCH(" ", B106) + 1, LEN(B106) - SEARCH(" ", B106))</f>
+        <v>41</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H106" t="str">
+        <f>MID(I106, SEARCH(" ", I106) + 1, LEN(I106) - SEARCH(" ", I106))</f>
+        <v>5</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" t="str">
+        <f>MID(B107, SEARCH(" ", B107) + 1, LEN(B107) - SEARCH(" ", B107))</f>
+        <v>42</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H107" t="str">
+        <f>MID(I107, SEARCH(" ", I107) + 1, LEN(I107) - SEARCH(" ", I107))</f>
+        <v>51</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J107">
+        <v>3</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" t="str">
+        <f>MID(B108, SEARCH(" ", B108) + 1, LEN(B108) - SEARCH(" ", B108))</f>
+        <v>43</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H108" t="str">
+        <f>MID(I108, SEARCH(" ", I108) + 1, LEN(I108) - SEARCH(" ", I108))</f>
+        <v>46</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" t="str">
+        <f>MID(B109, SEARCH(" ", B109) + 1, LEN(B109) - SEARCH(" ", B109))</f>
+        <v>44</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H109" t="str">
+        <f>MID(I109, SEARCH(" ", I109) + 1, LEN(I109) - SEARCH(" ", I109))</f>
+        <v>43</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" t="str">
+        <f>MID(B110, SEARCH(" ", B110) + 1, LEN(B110) - SEARCH(" ", B110))</f>
+        <v>45</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H110" t="str">
+        <f>MID(I110, SEARCH(" ", I110) + 1, LEN(I110) - SEARCH(" ", I110))</f>
+        <v>28</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J110">
+        <v>2</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" t="str">
+        <f>MID(B111, SEARCH(" ", B111) + 1, LEN(B111) - SEARCH(" ", B111))</f>
+        <v>46</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H111" t="str">
+        <f>MID(I111, SEARCH(" ", I111) + 1, LEN(I111) - SEARCH(" ", I111))</f>
+        <v>2</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J111">
+        <v>2</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" t="str">
+        <f>MID(B112, SEARCH(" ", B112) + 1, LEN(B112) - SEARCH(" ", B112))</f>
+        <v>47</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H112" t="str">
+        <f>MID(I112, SEARCH(" ", I112) + 1, LEN(I112) - SEARCH(" ", I112))</f>
+        <v>10</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" t="str">
+        <f>MID(B113, SEARCH(" ", B113) + 1, LEN(B113) - SEARCH(" ", B113))</f>
+        <v>48</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113">
+        <v>9</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="H113" t="str">
+        <f>MID(I113, SEARCH(" ", I113) + 1, LEN(I113) - SEARCH(" ", I113))</f>
+        <v>15</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" t="str">
+        <f>MID(B114, SEARCH(" ", B114) + 1, LEN(B114) - SEARCH(" ", B114))</f>
+        <v>49</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H114" t="str">
+        <f>MID(I114, SEARCH(" ", I114) + 1, LEN(I114) - SEARCH(" ", I114))</f>
+        <v>34</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" t="str">
+        <f>MID(B115, SEARCH(" ", B115) + 1, LEN(B115) - SEARCH(" ", B115))</f>
+        <v>50</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H115" t="str">
+        <f>MID(I115, SEARCH(" ", I115) + 1, LEN(I115) - SEARCH(" ", I115))</f>
+        <v>41</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" t="str">
+        <f>MID(B116, SEARCH(" ", B116) + 1, LEN(B116) - SEARCH(" ", B116))</f>
+        <v>51</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H116" t="str">
+        <f>MID(I116, SEARCH(" ", I116) + 1, LEN(I116) - SEARCH(" ", I116))</f>
+        <v>35</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" t="str">
+        <f>MID(B117, SEARCH(" ", B117) + 1, LEN(B117) - SEARCH(" ", B117))</f>
+        <v>52</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="H117" t="str">
+        <f>MID(I117, SEARCH(" ", I117) + 1, LEN(I117) - SEARCH(" ", I117))</f>
+        <v>44</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" t="str">
+        <f>MID(B118, SEARCH(" ", B118) + 1, LEN(B118) - SEARCH(" ", B118))</f>
+        <v>53</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H118" t="str">
+        <f>MID(I118, SEARCH(" ", I118) + 1, LEN(I118) - SEARCH(" ", I118))</f>
+        <v>40</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" t="str">
+        <f>MID(B119, SEARCH(" ", B119) + 1, LEN(B119) - SEARCH(" ", B119))</f>
+        <v>54</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H119" t="str">
+        <f>MID(I119, SEARCH(" ", I119) + 1, LEN(I119) - SEARCH(" ", I119))</f>
+        <v>25</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" t="str">
+        <f>MID(B120, SEARCH(" ", B120) + 1, LEN(B120) - SEARCH(" ", B120))</f>
+        <v>55</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="H120" t="str">
+        <f>MID(I120, SEARCH(" ", I120) + 1, LEN(I120) - SEARCH(" ", I120))</f>
+        <v>11</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" t="str">
+        <f>MID(B121, SEARCH(" ", B121) + 1, LEN(B121) - SEARCH(" ", B121))</f>
+        <v>56</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="H121" t="str">
+        <f>MID(I121, SEARCH(" ", I121) + 1, LEN(I121) - SEARCH(" ", I121))</f>
+        <v>1</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" t="str">
+        <f>MID(B122, SEARCH(" ", B122) + 1, LEN(B122) - SEARCH(" ", B122))</f>
+        <v>57</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H122" t="str">
+        <f>MID(I122, SEARCH(" ", I122) + 1, LEN(I122) - SEARCH(" ", I122))</f>
+        <v>23</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A63:B63"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA94C611-9448-EB40-B8F2-531D6AE23107}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="str">
-        <f>MID(B2, SEARCH(" ", B2) + 1, LEN(B2) - SEARCH(" ", B2))</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A52" si="0">MID(B3, SEARCH(" ", B3) + 1, LEN(B3) - SEARCH(" ", B3))</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="1">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <f>C2/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f>MID(I2, SEARCH(" ", I2) + 1, LEN(I2) - SEARCH(" ", I2))</f>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D52" si="1">C3/12*100</f>
+        <v>100</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H52" si="2">MID(I3, SEARCH(" ", I3) + 1, LEN(I3) - SEARCH(" ", I3))</f>
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="1">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1">
-        <f>J2/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="str">
-        <f>MID(B3, SEARCH(" ", B3) + 1, LEN(B3) - SEARCH(" ", B3))</f>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K52" si="3">J3/12*100</f>
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
-        <f>C3/12*100</f>
+      <c r="D4">
+        <f t="shared" si="1"/>
         <v>58.333333333333336</v>
       </c>
-      <c r="H3" s="1" t="str">
-        <f>MID(I3, SEARCH(" ", I3) + 1, LEN(I3) - SEARCH(" ", I3))</f>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="1">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1">
-        <f>J3/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="M3">
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M4">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="str">
-        <f>MID(B4, SEARCH(" ", B4) + 1, LEN(B4) - SEARCH(" ", B4))</f>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="1">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <f>C4/12*100</f>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
-      <c r="H4" s="1" t="str">
-        <f>MID(I4, SEARCH(" ", I4) + 1, LEN(I4) - SEARCH(" ", I4))</f>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="1">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1">
-        <f>J4/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="M4">
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M5">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="str">
-        <f>MID(B5, SEARCH(" ", B5) + 1, LEN(B5) - SEARCH(" ", B5))</f>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
-        <f>C5/12*100</f>
+      <c r="D6">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="H5" s="1" t="str">
-        <f>MID(I5, SEARCH(" ", I5) + 1, LEN(I5) - SEARCH(" ", I5))</f>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="1">
-        <v>12</v>
-      </c>
-      <c r="K5" s="1">
-        <f>J5/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="M5">
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M6">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="str">
-        <f>MID(B6, SEARCH(" ", B6) + 1, LEN(B6) - SEARCH(" ", B6))</f>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="1">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1">
-        <f>C6/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f>MID(I6, SEARCH(" ", I6) + 1, LEN(I6) - SEARCH(" ", I6))</f>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="1">
-        <v>12</v>
-      </c>
-      <c r="K6" s="1">
-        <f>J6/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="M6">
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M7">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="str">
-        <f>MID(B7, SEARCH(" ", B7) + 1, LEN(B7) - SEARCH(" ", B7))</f>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
-        <f>C7/12*100</f>
+      <c r="D8">
+        <f t="shared" si="1"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="H7" s="1" t="str">
-        <f>MID(I7, SEARCH(" ", I7) + 1, LEN(I7) - SEARCH(" ", I7))</f>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="1">
-        <v>12</v>
-      </c>
-      <c r="K7" s="1">
-        <f>J7/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="M7">
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M8">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="str">
-        <f>MID(B8, SEARCH(" ", B8) + 1, LEN(B8) - SEARCH(" ", B8))</f>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="1">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
-        <f>C8/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f>MID(I8, SEARCH(" ", I8) + 1, LEN(I8) - SEARCH(" ", I8))</f>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="1">
-        <v>12</v>
-      </c>
-      <c r="K8" s="1">
-        <f>J8/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="M8">
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M9">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="str">
-        <f>MID(B9, SEARCH(" ", B9) + 1, LEN(B9) - SEARCH(" ", B9))</f>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
-        <f>C9/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f>MID(I9, SEARCH(" ", I9) + 1, LEN(I9) - SEARCH(" ", I9))</f>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="1">
-        <v>12</v>
-      </c>
-      <c r="K9" s="1">
-        <f>J9/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="M9">
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M10">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="str">
-        <f>MID(B10, SEARCH(" ", B10) + 1, LEN(B10) - SEARCH(" ", B10))</f>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <f>C10/12*100</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f>MID(I10, SEARCH(" ", I10) + 1, LEN(I10) - SEARCH(" ", I10))</f>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="1">
-        <v>12</v>
-      </c>
-      <c r="K10" s="1">
-        <f>J10/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="M10">
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M11">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="str">
-        <f>MID(B11, SEARCH(" ", B11) + 1, LEN(B11) - SEARCH(" ", B11))</f>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="1">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1">
-        <f>C11/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f>MID(I11, SEARCH(" ", I11) + 1, LEN(I11) - SEARCH(" ", I11))</f>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="1">
-        <v>12</v>
-      </c>
-      <c r="K11" s="1">
-        <f>J11/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="M11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="str">
-        <f>MID(B12, SEARCH(" ", B12) + 1, LEN(B12) - SEARCH(" ", B12))</f>
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="1">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
-        <f>C12/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f>MID(I12, SEARCH(" ", I12) + 1, LEN(I12) - SEARCH(" ", I12))</f>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="1">
-        <v>12</v>
-      </c>
-      <c r="K12" s="1">
-        <f>J12/12*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="str">
-        <f>MID(B13, SEARCH(" ", B13) + 1, LEN(B13) - SEARCH(" ", B13))</f>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <f>C13/12*100</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f>MID(I13, SEARCH(" ", I13) + 1, LEN(I13) - SEARCH(" ", I13))</f>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="1">
-        <v>12</v>
-      </c>
-      <c r="K13" s="1">
-        <f>J13/12*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="str">
-        <f>MID(B14, SEARCH(" ", B14) + 1, LEN(B14) - SEARCH(" ", B14))</f>
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <f>C14/12*100</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f>MID(I14, SEARCH(" ", I14) + 1, LEN(I14) - SEARCH(" ", I14))</f>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="1">
-        <v>12</v>
-      </c>
-      <c r="K14" s="1">
-        <f>J14/12*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="str">
-        <f>MID(B15, SEARCH(" ", B15) + 1, LEN(B15) - SEARCH(" ", B15))</f>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1">
-        <f>C15/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f>MID(I15, SEARCH(" ", I15) + 1, LEN(I15) - SEARCH(" ", I15))</f>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="1">
-        <v>12</v>
-      </c>
-      <c r="K15" s="1">
-        <f>J15/12*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="str">
-        <f>MID(B16, SEARCH(" ", B16) + 1, LEN(B16) - SEARCH(" ", B16))</f>
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="1">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1">
-        <f>C16/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f>MID(I16, SEARCH(" ", I16) + 1, LEN(I16) - SEARCH(" ", I16))</f>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="1">
-        <v>12</v>
-      </c>
-      <c r="K16" s="1">
-        <f>J16/12*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="str">
-        <f>MID(B17, SEARCH(" ", B17) + 1, LEN(B17) - SEARCH(" ", B17))</f>
+      <c r="J17">
+        <v>12</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <f>C17/12*100</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="str">
-        <f>MID(I17, SEARCH(" ", I17) + 1, LEN(I17) - SEARCH(" ", I17))</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="1">
-        <v>12</v>
-      </c>
-      <c r="K17" s="1">
-        <f>J17/12*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="str">
-        <f>MID(B18, SEARCH(" ", B18) + 1, LEN(B18) - SEARCH(" ", B18))</f>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="1">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1">
-        <f>C18/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f>MID(I18, SEARCH(" ", I18) + 1, LEN(I18) - SEARCH(" ", I18))</f>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="1">
-        <v>12</v>
-      </c>
-      <c r="K18" s="1">
-        <f>J18/12*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="str">
-        <f>MID(B19, SEARCH(" ", B19) + 1, LEN(B19) - SEARCH(" ", B19))</f>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <f>C19/12*100</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f>MID(I19, SEARCH(" ", I19) + 1, LEN(I19) - SEARCH(" ", I19))</f>
-        <v>10</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="1">
-        <v>12</v>
-      </c>
-      <c r="K19" s="1">
-        <f>J19/12*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="str">
-        <f>MID(B20, SEARCH(" ", B20) + 1, LEN(B20) - SEARCH(" ", B20))</f>
+      <c r="J20">
+        <v>12</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="1">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1">
-        <f>C20/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f>MID(I20, SEARCH(" ", I20) + 1, LEN(I20) - SEARCH(" ", I20))</f>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="1">
-        <v>12</v>
-      </c>
-      <c r="K20" s="1">
-        <f>J20/12*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="str">
-        <f>MID(B21, SEARCH(" ", B21) + 1, LEN(B21) - SEARCH(" ", B21))</f>
+      <c r="J21">
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="1">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1">
-        <f>C21/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f>MID(I21, SEARCH(" ", I21) + 1, LEN(I21) - SEARCH(" ", I21))</f>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="1">
-        <v>12</v>
-      </c>
-      <c r="K21" s="1">
-        <f>J21/12*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="str">
-        <f>MID(B22, SEARCH(" ", B22) + 1, LEN(B22) - SEARCH(" ", B22))</f>
+      <c r="J22">
+        <v>12</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="D22" s="1">
-        <f>C22/12*100</f>
+      <c r="D23">
+        <f t="shared" si="1"/>
         <v>41.666666666666671</v>
       </c>
-      <c r="H22" s="1" t="str">
-        <f>MID(I22, SEARCH(" ", I22) + 1, LEN(I22) - SEARCH(" ", I22))</f>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="1">
-        <v>12</v>
-      </c>
-      <c r="K22" s="1">
-        <f>J22/12*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="str">
-        <f>MID(B23, SEARCH(" ", B23) + 1, LEN(B23) - SEARCH(" ", B23))</f>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="1">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1">
-        <f>C23/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <f>MID(I23, SEARCH(" ", I23) + 1, LEN(I23) - SEARCH(" ", I23))</f>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J24">
         <v>11</v>
       </c>
-      <c r="K23" s="1">
-        <f>J23/12*100</f>
+      <c r="K24">
+        <f t="shared" si="3"/>
         <v>91.666666666666657</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="str">
-        <f>MID(B24, SEARCH(" ", B24) + 1, LEN(B24) - SEARCH(" ", B24))</f>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25">
         <v>11</v>
       </c>
-      <c r="D24" s="1">
-        <f>C24/12*100</f>
+      <c r="D25">
+        <f t="shared" si="1"/>
         <v>91.666666666666657</v>
       </c>
-      <c r="H24" s="1" t="str">
-        <f>MID(I24, SEARCH(" ", I24) + 1, LEN(I24) - SEARCH(" ", I24))</f>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J24" s="1">
-        <v>10</v>
-      </c>
-      <c r="K24" s="1">
-        <f>J24/12*100</f>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="str">
-        <f>MID(B25, SEARCH(" ", B25) + 1, LEN(B25) - SEARCH(" ", B25))</f>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26">
         <v>8</v>
       </c>
-      <c r="D25" s="1">
-        <f>C25/12*100</f>
+      <c r="D26">
+        <f t="shared" si="1"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="H25" s="1" t="str">
-        <f>MID(I25, SEARCH(" ", I25) + 1, LEN(I25) - SEARCH(" ", I25))</f>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="1">
-        <v>10</v>
-      </c>
-      <c r="K25" s="1">
-        <f>J25/12*100</f>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="str">
-        <f>MID(B26, SEARCH(" ", B26) + 1, LEN(B26) - SEARCH(" ", B26))</f>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="1">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1">
-        <f>C26/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f>MID(I26, SEARCH(" ", I26) + 1, LEN(I26) - SEARCH(" ", I26))</f>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="1">
-        <v>10</v>
-      </c>
-      <c r="K26" s="1">
-        <f>J26/12*100</f>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="str">
-        <f>MID(B27, SEARCH(" ", B27) + 1, LEN(B27) - SEARCH(" ", B27))</f>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="1">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1">
-        <f>C27/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f>MID(I27, SEARCH(" ", I27) + 1, LEN(I27) - SEARCH(" ", I27))</f>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J28">
         <v>9</v>
       </c>
-      <c r="K27" s="1">
-        <f>J27/12*100</f>
+      <c r="K28">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="str">
-        <f>MID(B28, SEARCH(" ", B28) + 1, LEN(B28) - SEARCH(" ", B28))</f>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <f>C28/12*100</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="1" t="str">
-        <f>MID(I28, SEARCH(" ", I28) + 1, LEN(I28) - SEARCH(" ", I28))</f>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I29" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J29">
         <v>9</v>
       </c>
-      <c r="K28" s="1">
-        <f>J28/12*100</f>
+      <c r="K29">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="str">
-        <f>MID(B29, SEARCH(" ", B29) + 1, LEN(B29) - SEARCH(" ", B29))</f>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="1">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1">
-        <f>C29/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H29" s="1" t="str">
-        <f>MID(I29, SEARCH(" ", I29) + 1, LEN(I29) - SEARCH(" ", I29))</f>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J30">
         <v>9</v>
       </c>
-      <c r="K29" s="1">
-        <f>J29/12*100</f>
+      <c r="K30">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="str">
-        <f>MID(B30, SEARCH(" ", B30) + 1, LEN(B30) - SEARCH(" ", B30))</f>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="1">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1">
-        <f>C30/12*100</f>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
-      <c r="H30" s="1" t="str">
-        <f>MID(I30, SEARCH(" ", I30) + 1, LEN(I30) - SEARCH(" ", I30))</f>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J31">
         <v>8</v>
       </c>
-      <c r="K30" s="1">
-        <f>J30/12*100</f>
+      <c r="K31">
+        <f t="shared" si="3"/>
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="str">
-        <f>MID(B31, SEARCH(" ", B31) + 1, LEN(B31) - SEARCH(" ", B31))</f>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="1">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1">
-        <f>C31/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H31" s="1" t="str">
-        <f>MID(I31, SEARCH(" ", I31) + 1, LEN(I31) - SEARCH(" ", I31))</f>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J32">
         <v>7</v>
       </c>
-      <c r="K31" s="1">
-        <f>J31/12*100</f>
+      <c r="K32">
+        <f t="shared" si="3"/>
         <v>58.333333333333336</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="str">
-        <f>MID(B32, SEARCH(" ", B32) + 1, LEN(B32) - SEARCH(" ", B32))</f>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="D32" s="1">
-        <f>C32/12*100</f>
+      <c r="D33">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H32" s="1" t="str">
-        <f>MID(I32, SEARCH(" ", I32) + 1, LEN(I32) - SEARCH(" ", I32))</f>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33">
         <v>7</v>
       </c>
-      <c r="K32" s="1">
-        <f>J32/12*100</f>
+      <c r="K33">
+        <f t="shared" si="3"/>
         <v>58.333333333333336</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="str">
-        <f>MID(B33, SEARCH(" ", B33) + 1, LEN(B33) - SEARCH(" ", B33))</f>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34">
         <v>2</v>
       </c>
-      <c r="D33" s="1">
-        <f>C33/12*100</f>
+      <c r="D34">
+        <f t="shared" si="1"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="H33" s="1" t="str">
-        <f>MID(I33, SEARCH(" ", I33) + 1, LEN(I33) - SEARCH(" ", I33))</f>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34">
         <v>6</v>
       </c>
-      <c r="K33" s="1">
-        <f>J33/12*100</f>
+      <c r="K34">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="str">
-        <f>MID(B34, SEARCH(" ", B34) + 1, LEN(B34) - SEARCH(" ", B34))</f>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <f>C34/12*100</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="1" t="str">
-        <f>MID(I34, SEARCH(" ", I34) + 1, LEN(I34) - SEARCH(" ", I34))</f>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I35" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J35">
         <v>5</v>
       </c>
-      <c r="K34" s="1">
-        <f>J34/12*100</f>
+      <c r="K35">
+        <f t="shared" si="3"/>
         <v>41.666666666666671</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="str">
-        <f>MID(B35, SEARCH(" ", B35) + 1, LEN(B35) - SEARCH(" ", B35))</f>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="1">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1">
-        <f>C35/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H35" s="1" t="str">
-        <f>MID(I35, SEARCH(" ", I35) + 1, LEN(I35) - SEARCH(" ", I35))</f>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J36">
         <v>4</v>
       </c>
-      <c r="K35" s="1">
-        <f>J35/12*100</f>
+      <c r="K36">
+        <f t="shared" si="3"/>
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="str">
-        <f>MID(B36, SEARCH(" ", B36) + 1, LEN(B36) - SEARCH(" ", B36))</f>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37">
         <v>1</v>
       </c>
-      <c r="D36" s="1">
-        <f>C36/12*100</f>
+      <c r="D37">
+        <f t="shared" si="1"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="H36" s="1" t="str">
-        <f>MID(I36, SEARCH(" ", I36) + 1, LEN(I36) - SEARCH(" ", I36))</f>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I37" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J37">
         <v>3</v>
       </c>
-      <c r="K36" s="1">
-        <f>J36/12*100</f>
+      <c r="K37">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="str">
-        <f>MID(B37, SEARCH(" ", B37) + 1, LEN(B37) - SEARCH(" ", B37))</f>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38">
         <v>1</v>
       </c>
-      <c r="D37" s="1">
-        <f>C37/12*100</f>
+      <c r="D38">
+        <f t="shared" si="1"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="H37" s="1" t="str">
-        <f>MID(I37, SEARCH(" ", I37) + 1, LEN(I37) - SEARCH(" ", I37))</f>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I38" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J38">
         <v>2</v>
       </c>
-      <c r="K37" s="1">
-        <f>J37/12*100</f>
+      <c r="K38">
+        <f t="shared" si="3"/>
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="str">
-        <f>MID(B38, SEARCH(" ", B38) + 1, LEN(B38) - SEARCH(" ", B38))</f>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="1">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1">
-        <f>C38/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H38" s="1" t="str">
-        <f>MID(I38, SEARCH(" ", I38) + 1, LEN(I38) - SEARCH(" ", I38))</f>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I39" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J39">
         <v>2</v>
       </c>
-      <c r="K38" s="1">
-        <f>J38/12*100</f>
+      <c r="K39">
+        <f t="shared" si="3"/>
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="str">
-        <f>MID(B39, SEARCH(" ", B39) + 1, LEN(B39) - SEARCH(" ", B39))</f>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40">
         <v>4</v>
       </c>
-      <c r="D39" s="1">
-        <f>C39/12*100</f>
+      <c r="D40">
+        <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="H39" s="1" t="str">
-        <f>MID(I39, SEARCH(" ", I39) + 1, LEN(I39) - SEARCH(" ", I39))</f>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J40">
         <v>2</v>
       </c>
-      <c r="K39" s="1">
-        <f>J39/12*100</f>
+      <c r="K40">
+        <f t="shared" si="3"/>
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="str">
-        <f>MID(B40, SEARCH(" ", B40) + 1, LEN(B40) - SEARCH(" ", B40))</f>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="1">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1">
-        <f>C40/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H40" s="1" t="str">
-        <f>MID(I40, SEARCH(" ", I40) + 1, LEN(I40) - SEARCH(" ", I40))</f>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I41" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J41">
         <v>1</v>
       </c>
-      <c r="K40" s="1">
-        <f>J40/12*100</f>
+      <c r="K41">
+        <f t="shared" si="3"/>
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="str">
-        <f>MID(B41, SEARCH(" ", B41) + 1, LEN(B41) - SEARCH(" ", B41))</f>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <f>C41/12*100</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="1" t="str">
-        <f>MID(I41, SEARCH(" ", I41) + 1, LEN(I41) - SEARCH(" ", I41))</f>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I42" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J42">
         <v>1</v>
       </c>
-      <c r="K41" s="1">
-        <f>J41/12*100</f>
+      <c r="K42">
+        <f t="shared" si="3"/>
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="str">
-        <f>MID(B42, SEARCH(" ", B42) + 1, LEN(B42) - SEARCH(" ", B42))</f>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <f>C42/12*100</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="1" t="str">
-        <f>MID(I42, SEARCH(" ", I42) + 1, LEN(I42) - SEARCH(" ", I42))</f>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
-        <f>J42/12*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="str">
-        <f>MID(B43, SEARCH(" ", B43) + 1, LEN(B43) - SEARCH(" ", B43))</f>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44">
         <v>2</v>
       </c>
-      <c r="D43" s="1">
-        <f>C43/12*100</f>
+      <c r="D44">
+        <f t="shared" si="1"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="H43" s="1" t="str">
-        <f>MID(I43, SEARCH(" ", I43) + 1, LEN(I43) - SEARCH(" ", I43))</f>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I44" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J43" s="1">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
-        <f>J43/12*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="str">
-        <f>MID(B44, SEARCH(" ", B44) + 1, LEN(B44) - SEARCH(" ", B44))</f>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C45">
         <v>9</v>
       </c>
-      <c r="D44" s="1">
-        <f>C44/12*100</f>
+      <c r="D45">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="H44" s="1" t="str">
-        <f>MID(I44, SEARCH(" ", I44) + 1, LEN(I44) - SEARCH(" ", I44))</f>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I45" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
-        <f>J44/12*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="str">
-        <f>MID(B45, SEARCH(" ", B45) + 1, LEN(B45) - SEARCH(" ", B45))</f>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="1">
-        <v>12</v>
-      </c>
-      <c r="D45" s="1">
-        <f>C45/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H45" s="1" t="str">
-        <f>MID(I45, SEARCH(" ", I45) + 1, LEN(I45) - SEARCH(" ", I45))</f>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I46" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
-        <f>J45/12*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="str">
-        <f>MID(B46, SEARCH(" ", B46) + 1, LEN(B46) - SEARCH(" ", B46))</f>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
-        <f>C46/12*100</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="1" t="str">
-        <f>MID(I46, SEARCH(" ", I46) + 1, LEN(I46) - SEARCH(" ", I46))</f>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
-        <f>J46/12*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="str">
-        <f>MID(B47, SEARCH(" ", B47) + 1, LEN(B47) - SEARCH(" ", B47))</f>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="1">
-        <v>10</v>
-      </c>
-      <c r="D47" s="1">
-        <f>C47/12*100</f>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
-      <c r="H47" s="1" t="str">
-        <f>MID(I47, SEARCH(" ", I47) + 1, LEN(I47) - SEARCH(" ", I47))</f>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I48" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
-        <f>J47/12*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="str">
-        <f>MID(B48, SEARCH(" ", B48) + 1, LEN(B48) - SEARCH(" ", B48))</f>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="1">
+      <c r="B49" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49">
         <v>7</v>
       </c>
-      <c r="D48" s="1">
-        <f>C48/12*100</f>
+      <c r="D49">
+        <f t="shared" si="1"/>
         <v>58.333333333333336</v>
       </c>
-      <c r="H48" s="1" t="str">
-        <f>MID(I48, SEARCH(" ", I48) + 1, LEN(I48) - SEARCH(" ", I48))</f>
-        <v>12</v>
-      </c>
-      <c r="I48" s="2" t="s">
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <f>J48/12*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="str">
-        <f>MID(B49, SEARCH(" ", B49) + 1, LEN(B49) - SEARCH(" ", B49))</f>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="1">
-        <v>12</v>
-      </c>
-      <c r="D49" s="1">
-        <f>C49/12*100</f>
-        <v>100</v>
-      </c>
-      <c r="H49" s="1" t="str">
-        <f>MID(I49, SEARCH(" ", I49) + 1, LEN(I49) - SEARCH(" ", I49))</f>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I50" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1">
-        <f>J49/12*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="str">
-        <f>MID(B50, SEARCH(" ", B50) + 1, LEN(B50) - SEARCH(" ", B50))</f>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C51">
         <v>6</v>
       </c>
-      <c r="D50" s="1">
-        <f>C50/12*100</f>
+      <c r="D51">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H50" s="1" t="str">
-        <f>MID(I50, SEARCH(" ", I50) + 1, LEN(I50) - SEARCH(" ", I50))</f>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I51" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
-        <f>J50/12*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="str">
-        <f>MID(B51, SEARCH(" ", B51) + 1, LEN(B51) - SEARCH(" ", B51))</f>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C52">
         <v>9</v>
       </c>
-      <c r="D51" s="1">
-        <f>C51/12*100</f>
+      <c r="D52">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="H51" s="1" t="str">
-        <f>MID(I51, SEARCH(" ", I51) + 1, LEN(I51) - SEARCH(" ", I51))</f>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I52" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <f>J51/12*100</f>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f>MID(B57, SEARCH(" ", B57) + 1, LEN(B57) - SEARCH(" ", B57))</f>
+        <v>0</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:D106" si="4">C57/12*100</f>
+        <v>100</v>
+      </c>
+      <c r="H57" t="str">
+        <f>MID(I57, SEARCH(" ", I57) + 1, LEN(I57) - SEARCH(" ", I57))</f>
+        <v>45</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J57">
+        <v>12</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ref="K57:K106" si="5">J57/12*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f>MID(B58, SEARCH(" ", B58) + 1, LEN(B58) - SEARCH(" ", B58))</f>
+        <v>1</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H58" t="str">
+        <f>MID(I58, SEARCH(" ", I58) + 1, LEN(I58) - SEARCH(" ", I58))</f>
+        <v>24</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J58">
+        <v>12</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f>MID(B59, SEARCH(" ", B59) + 1, LEN(B59) - SEARCH(" ", B59))</f>
+        <v>2</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="4"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="H59" t="str">
+        <f>MID(I59, SEARCH(" ", I59) + 1, LEN(I59) - SEARCH(" ", I59))</f>
+        <v>13</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J59">
+        <v>12</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f>MID(B60, SEARCH(" ", B60) + 1, LEN(B60) - SEARCH(" ", B60))</f>
+        <v>3</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="4"/>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="H60" t="str">
+        <f>MID(I60, SEARCH(" ", I60) + 1, LEN(I60) - SEARCH(" ", I60))</f>
+        <v>27</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J60">
+        <v>12</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f>MID(B61, SEARCH(" ", B61) + 1, LEN(B61) - SEARCH(" ", B61))</f>
+        <v>4</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H61" t="str">
+        <f>MID(I61, SEARCH(" ", I61) + 1, LEN(I61) - SEARCH(" ", I61))</f>
+        <v>25</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J61">
+        <v>12</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="str">
+        <f>MID(B62, SEARCH(" ", B62) + 1, LEN(B62) - SEARCH(" ", B62))</f>
+        <v>5</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="H62" t="str">
+        <f>MID(I62, SEARCH(" ", I62) + 1, LEN(I62) - SEARCH(" ", I62))</f>
+        <v>16</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J62">
+        <v>12</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="str">
+        <f>MID(B63, SEARCH(" ", B63) + 1, LEN(B63) - SEARCH(" ", B63))</f>
+        <v>6</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H63" t="str">
+        <f>MID(I63, SEARCH(" ", I63) + 1, LEN(I63) - SEARCH(" ", I63))</f>
+        <v>18</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J63">
+        <v>12</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
+        <f>MID(B64, SEARCH(" ", B64) + 1, LEN(B64) - SEARCH(" ", B64))</f>
+        <v>7</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="4"/>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="H64" t="str">
+        <f>MID(I64, SEARCH(" ", I64) + 1, LEN(I64) - SEARCH(" ", I64))</f>
+        <v>29</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J64">
+        <v>12</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f>MID(B65, SEARCH(" ", B65) + 1, LEN(B65) - SEARCH(" ", B65))</f>
+        <v>8</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="str">
+        <f>MID(I65, SEARCH(" ", I65) + 1, LEN(I65) - SEARCH(" ", I65))</f>
+        <v>36</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J65">
+        <v>12</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f>MID(B66, SEARCH(" ", B66) + 1, LEN(B66) - SEARCH(" ", B66))</f>
+        <v>9</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H66" t="str">
+        <f>MID(I66, SEARCH(" ", I66) + 1, LEN(I66) - SEARCH(" ", I66))</f>
+        <v>43</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J66">
+        <v>12</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f>MID(B67, SEARCH(" ", B67) + 1, LEN(B67) - SEARCH(" ", B67))</f>
+        <v>10</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H67" t="str">
+        <f>MID(I67, SEARCH(" ", I67) + 1, LEN(I67) - SEARCH(" ", I67))</f>
+        <v>47</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J67">
+        <v>12</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f>MID(B68, SEARCH(" ", B68) + 1, LEN(B68) - SEARCH(" ", B68))</f>
+        <v>11</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="str">
+        <f>MID(I68, SEARCH(" ", I68) + 1, LEN(I68) - SEARCH(" ", I68))</f>
+        <v>6</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J68">
+        <v>12</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f>MID(B69, SEARCH(" ", B69) + 1, LEN(B69) - SEARCH(" ", B69))</f>
+        <v>12</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="str">
+        <f>MID(I69, SEARCH(" ", I69) + 1, LEN(I69) - SEARCH(" ", I69))</f>
+        <v>33</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J69">
+        <v>12</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f>MID(B70, SEARCH(" ", B70) + 1, LEN(B70) - SEARCH(" ", B70))</f>
+        <v>13</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H70" t="str">
+        <f>MID(I70, SEARCH(" ", I70) + 1, LEN(I70) - SEARCH(" ", I70))</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J70">
+        <v>12</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f>MID(B71, SEARCH(" ", B71) + 1, LEN(B71) - SEARCH(" ", B71))</f>
+        <v>14</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="H71" t="str">
+        <f>MID(I71, SEARCH(" ", I71) + 1, LEN(I71) - SEARCH(" ", I71))</f>
+        <v>9</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J71">
+        <v>12</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f>MID(B72, SEARCH(" ", B72) + 1, LEN(B72) - SEARCH(" ", B72))</f>
+        <v>15</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="str">
+        <f>MID(I72, SEARCH(" ", I72) + 1, LEN(I72) - SEARCH(" ", I72))</f>
+        <v>10</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J72">
+        <v>12</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f>MID(B73, SEARCH(" ", B73) + 1, LEN(B73) - SEARCH(" ", B73))</f>
+        <v>16</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H73" t="str">
+        <f>MID(I73, SEARCH(" ", I73) + 1, LEN(I73) - SEARCH(" ", I73))</f>
+        <v>4</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J73">
+        <v>12</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f>MID(B74, SEARCH(" ", B74) + 1, LEN(B74) - SEARCH(" ", B74))</f>
+        <v>17</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="H74" t="str">
+        <f>MID(I74, SEARCH(" ", I74) + 1, LEN(I74) - SEARCH(" ", I74))</f>
+        <v>7</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J74">
+        <v>11</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="5"/>
+        <v>91.666666666666657</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f>MID(B75, SEARCH(" ", B75) + 1, LEN(B75) - SEARCH(" ", B75))</f>
+        <v>18</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H75" t="str">
+        <f>MID(I75, SEARCH(" ", I75) + 1, LEN(I75) - SEARCH(" ", I75))</f>
+        <v>38</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J75">
+        <v>11</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="5"/>
+        <v>91.666666666666657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f>MID(B76, SEARCH(" ", B76) + 1, LEN(B76) - SEARCH(" ", B76))</f>
+        <v>19</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="4"/>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="H76" t="str">
+        <f>MID(I76, SEARCH(" ", I76) + 1, LEN(I76) - SEARCH(" ", I76))</f>
+        <v>46</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J76">
+        <v>11</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="5"/>
+        <v>91.666666666666657</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f>MID(B77, SEARCH(" ", B77) + 1, LEN(B77) - SEARCH(" ", B77))</f>
+        <v>20</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H77" t="str">
+        <f>MID(I77, SEARCH(" ", I77) + 1, LEN(I77) - SEARCH(" ", I77))</f>
+        <v>19</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J77">
+        <v>11</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="5"/>
+        <v>91.666666666666657</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f>MID(B78, SEARCH(" ", B78) + 1, LEN(B78) - SEARCH(" ", B78))</f>
+        <v>21</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78">
+        <v>11</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="4"/>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="H78" t="str">
+        <f>MID(I78, SEARCH(" ", I78) + 1, LEN(I78) - SEARCH(" ", I78))</f>
+        <v>21</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78">
+        <v>11</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="5"/>
+        <v>91.666666666666657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f>MID(B79, SEARCH(" ", B79) + 1, LEN(B79) - SEARCH(" ", B79))</f>
+        <v>22</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="4"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="H79" t="str">
+        <f>MID(I79, SEARCH(" ", I79) + 1, LEN(I79) - SEARCH(" ", I79))</f>
+        <v>2</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J79">
+        <v>10</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="5"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f>MID(B80, SEARCH(" ", B80) + 1, LEN(B80) - SEARCH(" ", B80))</f>
+        <v>23</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="H80" t="str">
+        <f>MID(I80, SEARCH(" ", I80) + 1, LEN(I80) - SEARCH(" ", I80))</f>
+        <v>28</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J80">
+        <v>10</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="5"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f>MID(B81, SEARCH(" ", B81) + 1, LEN(B81) - SEARCH(" ", B81))</f>
+        <v>24</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H81" t="str">
+        <f>MID(I81, SEARCH(" ", I81) + 1, LEN(I81) - SEARCH(" ", I81))</f>
+        <v>22</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="5"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f>MID(B82, SEARCH(" ", B82) + 1, LEN(B82) - SEARCH(" ", B82))</f>
+        <v>25</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H82" t="str">
+        <f>MID(I82, SEARCH(" ", I82) + 1, LEN(I82) - SEARCH(" ", I82))</f>
+        <v>14</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J82">
+        <v>9</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f>MID(B83, SEARCH(" ", B83) + 1, LEN(B83) - SEARCH(" ", B83))</f>
+        <v>26</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="str">
+        <f>MID(I83, SEARCH(" ", I83) + 1, LEN(I83) - SEARCH(" ", I83))</f>
+        <v>23</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J83">
+        <v>9</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f>MID(B84, SEARCH(" ", B84) + 1, LEN(B84) - SEARCH(" ", B84))</f>
+        <v>27</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H84" t="str">
+        <f>MID(I84, SEARCH(" ", I84) + 1, LEN(I84) - SEARCH(" ", I84))</f>
+        <v>42</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J84">
+        <v>9</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f>MID(B85, SEARCH(" ", B85) + 1, LEN(B85) - SEARCH(" ", B85))</f>
+        <v>28</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="4"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="H85" t="str">
+        <f>MID(I85, SEARCH(" ", I85) + 1, LEN(I85) - SEARCH(" ", I85))</f>
+        <v>48</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J85">
+        <v>7</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="5"/>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f>MID(B86, SEARCH(" ", B86) + 1, LEN(B86) - SEARCH(" ", B86))</f>
+        <v>29</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H86" t="str">
+        <f>MID(I86, SEARCH(" ", I86) + 1, LEN(I86) - SEARCH(" ", I86))</f>
+        <v>1</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J86">
+        <v>6</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f>MID(B87, SEARCH(" ", B87) + 1, LEN(B87) - SEARCH(" ", B87))</f>
+        <v>30</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="H87" t="str">
+        <f>MID(I87, SEARCH(" ", I87) + 1, LEN(I87) - SEARCH(" ", I87))</f>
+        <v>49</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J87">
+        <v>6</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f>MID(B88, SEARCH(" ", B88) + 1, LEN(B88) - SEARCH(" ", B88))</f>
+        <v>31</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="4"/>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="H88" t="str">
+        <f>MID(I88, SEARCH(" ", I88) + 1, LEN(I88) - SEARCH(" ", I88))</f>
+        <v>3</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="5"/>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f>MID(B89, SEARCH(" ", B89) + 1, LEN(B89) - SEARCH(" ", B89))</f>
+        <v>32</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="str">
+        <f>MID(I89, SEARCH(" ", I89) + 1, LEN(I89) - SEARCH(" ", I89))</f>
+        <v>31</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="5"/>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f>MID(B90, SEARCH(" ", B90) + 1, LEN(B90) - SEARCH(" ", B90))</f>
+        <v>33</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H90" t="str">
+        <f>MID(I90, SEARCH(" ", I90) + 1, LEN(I90) - SEARCH(" ", I90))</f>
+        <v>41</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="5"/>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f>MID(B91, SEARCH(" ", B91) + 1, LEN(B91) - SEARCH(" ", B91))</f>
+        <v>34</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H91" t="str">
+        <f>MID(I91, SEARCH(" ", I91) + 1, LEN(I91) - SEARCH(" ", I91))</f>
+        <v>34</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J91">
+        <v>3</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f>MID(B92, SEARCH(" ", B92) + 1, LEN(B92) - SEARCH(" ", B92))</f>
+        <v>35</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="4"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="H92" t="str">
+        <f>MID(I92, SEARCH(" ", I92) + 1, LEN(I92) - SEARCH(" ", I92))</f>
+        <v>20</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f>MID(B93, SEARCH(" ", B93) + 1, LEN(B93) - SEARCH(" ", B93))</f>
+        <v>36</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H93" t="str">
+        <f>MID(I93, SEARCH(" ", I93) + 1, LEN(I93) - SEARCH(" ", I93))</f>
+        <v>35</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="5"/>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="str">
+        <f>MID(B94, SEARCH(" ", B94) + 1, LEN(B94) - SEARCH(" ", B94))</f>
+        <v>37</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="4"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="H94" t="str">
+        <f>MID(I94, SEARCH(" ", I94) + 1, LEN(I94) - SEARCH(" ", I94))</f>
+        <v>37</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="5"/>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="str">
+        <f>MID(B95, SEARCH(" ", B95) + 1, LEN(B95) - SEARCH(" ", B95))</f>
+        <v>38</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95">
+        <v>11</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="4"/>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="H95" t="str">
+        <f>MID(I95, SEARCH(" ", I95) + 1, LEN(I95) - SEARCH(" ", I95))</f>
+        <v>30</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="str">
+        <f>MID(B96, SEARCH(" ", B96) + 1, LEN(B96) - SEARCH(" ", B96))</f>
+        <v>39</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="str">
+        <f>MID(I96, SEARCH(" ", I96) + 1, LEN(I96) - SEARCH(" ", I96))</f>
+        <v>17</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="str">
+        <f>MID(B97, SEARCH(" ", B97) + 1, LEN(B97) - SEARCH(" ", B97))</f>
+        <v>40</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="str">
+        <f>MID(I97, SEARCH(" ", I97) + 1, LEN(I97) - SEARCH(" ", I97))</f>
+        <v>5</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="str">
+        <f>MID(B98, SEARCH(" ", B98) + 1, LEN(B98) - SEARCH(" ", B98))</f>
+        <v>41</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="4"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="H98" t="str">
+        <f>MID(I98, SEARCH(" ", I98) + 1, LEN(I98) - SEARCH(" ", I98))</f>
+        <v>8</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="str">
+        <f>MID(B99, SEARCH(" ", B99) + 1, LEN(B99) - SEARCH(" ", B99))</f>
+        <v>42</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="H99" t="str">
+        <f>MID(I99, SEARCH(" ", I99) + 1, LEN(I99) - SEARCH(" ", I99))</f>
+        <v>32</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="str">
+        <f>MID(B100, SEARCH(" ", B100) + 1, LEN(B100) - SEARCH(" ", B100))</f>
+        <v>43</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100">
+        <v>12</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H100" t="str">
+        <f>MID(I100, SEARCH(" ", I100) + 1, LEN(I100) - SEARCH(" ", I100))</f>
+        <v>40</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="str">
+        <f>MID(B101, SEARCH(" ", B101) + 1, LEN(B101) - SEARCH(" ", B101))</f>
+        <v>44</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="str">
+        <f>MID(I101, SEARCH(" ", I101) + 1, LEN(I101) - SEARCH(" ", I101))</f>
+        <v>15</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" t="str">
+        <f>MID(B102, SEARCH(" ", B102) + 1, LEN(B102) - SEARCH(" ", B102))</f>
+        <v>45</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102">
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H102" t="str">
+        <f>MID(I102, SEARCH(" ", I102) + 1, LEN(I102) - SEARCH(" ", I102))</f>
+        <v>26</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" t="str">
+        <f>MID(B103, SEARCH(" ", B103) + 1, LEN(B103) - SEARCH(" ", B103))</f>
+        <v>46</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103">
+        <v>11</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="4"/>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="H103" t="str">
+        <f>MID(I103, SEARCH(" ", I103) + 1, LEN(I103) - SEARCH(" ", I103))</f>
+        <v>39</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" t="str">
+        <f>MID(B104, SEARCH(" ", B104) + 1, LEN(B104) - SEARCH(" ", B104))</f>
+        <v>47</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H104" t="str">
+        <f>MID(I104, SEARCH(" ", I104) + 1, LEN(I104) - SEARCH(" ", I104))</f>
+        <v>12</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" t="str">
+        <f>MID(B105, SEARCH(" ", B105) + 1, LEN(B105) - SEARCH(" ", B105))</f>
+        <v>48</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="4"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="H105" t="str">
+        <f>MID(I105, SEARCH(" ", I105) + 1, LEN(I105) - SEARCH(" ", I105))</f>
+        <v>11</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" t="str">
+        <f>MID(B106, SEARCH(" ", B106) + 1, LEN(B106) - SEARCH(" ", B106))</f>
+        <v>49</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H106" t="str">
+        <f>MID(I106, SEARCH(" ", I106) + 1, LEN(I106) - SEARCH(" ", I106))</f>
+        <v>44</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A55:B55"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5278,131 +8591,131 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>60</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>70</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>80</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>90</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>100</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
         <v>27</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>22</v>
       </c>
     </row>
@@ -5415,7 +8728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B990812F-6413-B547-AC44-789846FC9901}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
